--- a/AutomatizacionScoleg/Features/M01 Transversal/M01_Transversal.xlsx
+++ b/AutomatizacionScoleg/Features/M01 Transversal/M01_Transversal.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89954958-1413-4912-B5C7-7E02962351C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9951011-BFB0-4C90-9591-690CAD68DBBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="M03-0101 0501 INICIAR SESION" sheetId="1" r:id="rId1"/>
+    <sheet name="INICIAR.SESION" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Password</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>19.403.866-6</t>
+  </si>
+  <si>
+    <t>23.423.423-4</t>
   </si>
 </sst>
 </file>
@@ -59,8 +62,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +433,14 @@
         <v>34567890</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12345678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
